--- a/2014/Sponsoring/VIP/VIP-Liste 2014.xlsx
+++ b/2014/Sponsoring/VIP/VIP-Liste 2014.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +79,111 @@
   </si>
   <si>
     <t>VIP-Liste 2014</t>
+  </si>
+  <si>
+    <t>Ebersteiner</t>
+  </si>
+  <si>
+    <t>Buffet Gusenhütt'n</t>
+  </si>
+  <si>
+    <t>SPAR Ried (Wall)</t>
+  </si>
+  <si>
+    <t>Sparkasse Ried/Riedmark</t>
+  </si>
+  <si>
+    <t>Reifeisenkasse Ried/Riedmark</t>
+  </si>
+  <si>
+    <t>Opel Holzer</t>
+  </si>
+  <si>
+    <t>Mayrhofer Franz</t>
+  </si>
+  <si>
+    <t>Sandwerk</t>
+  </si>
+  <si>
+    <t>Bgm. Ernst Rabl</t>
+  </si>
+  <si>
+    <t>Firma SZ Tauschek Christian</t>
+  </si>
+  <si>
+    <t>VzBgm. Christian Tauschek</t>
+  </si>
+  <si>
+    <t>VzBgm. Josef Lettner</t>
+  </si>
+  <si>
+    <t>LKW-Fahrer (Kirchweger Transporte)</t>
+  </si>
+  <si>
+    <t>Linz AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wießbauer </t>
+  </si>
+  <si>
+    <t>Lagerhaus Lungitz</t>
+  </si>
+  <si>
+    <t>Elektro Tauschek Hubert</t>
+  </si>
+  <si>
+    <t>Office Hinterberger</t>
+  </si>
+  <si>
+    <t>Sport Mayr</t>
+  </si>
+  <si>
+    <t>Hentschläger</t>
+  </si>
+  <si>
+    <t>Generali</t>
+  </si>
+  <si>
+    <t>Volvo Reichart</t>
+  </si>
+  <si>
+    <t>Tschebbarwoggi</t>
+  </si>
+  <si>
+    <t>Elektro Wurmsdobler</t>
+  </si>
+  <si>
+    <t>Techn. Büro Brandstetter</t>
+  </si>
+  <si>
+    <t>Baumeister Moser</t>
+  </si>
+  <si>
+    <t>Märtenböck</t>
+  </si>
+  <si>
+    <t>Akku Neumüller</t>
+  </si>
+  <si>
+    <t>Karosserie Steinkellner</t>
+  </si>
+  <si>
+    <t>OÖ. Versicherung Janko</t>
+  </si>
+  <si>
+    <t>Uniqua Versicherung Roidinger</t>
+  </si>
+  <si>
+    <t>KCS KFC Center (Furth)</t>
+  </si>
+  <si>
+    <t>Raiffeisenkasse St.Georgen</t>
+  </si>
+  <si>
+    <t>Spenglerei Kaltenbrunner</t>
+  </si>
+  <si>
+    <t>Ogolder Marianne</t>
   </si>
 </sst>
 </file>
@@ -139,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -160,17 +265,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -199,9 +293,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -228,12 +322,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -540,7 +633,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +668,9 @@
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15" t="s">
         <v>9</v>
@@ -588,7 +683,9 @@
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
         <v>9</v>
@@ -601,7 +698,9 @@
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="C6" s="14"/>
       <c r="D6" s="15" t="s">
         <v>8</v>
@@ -614,7 +713,9 @@
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="C7" s="14"/>
       <c r="D7" s="15" t="s">
         <v>9</v>
@@ -627,7 +728,9 @@
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="C8" s="14"/>
       <c r="D8" s="15" t="s">
         <v>9</v>
@@ -638,7 +741,9 @@
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15" t="s">
         <v>9</v>
@@ -648,7 +753,9 @@
       <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="15" t="s">
         <v>9</v>
@@ -658,18 +765,22 @@
       <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="C12" s="14"/>
       <c r="D12" s="15" t="s">
         <v>15</v>
@@ -679,7 +790,9 @@
       <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="C13" s="14"/>
       <c r="D13" s="15" t="s">
         <v>13</v>
@@ -689,7 +802,9 @@
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="C14" s="14"/>
       <c r="D14" s="15" t="s">
         <v>11</v>
@@ -699,7 +814,9 @@
       <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="C15" s="14"/>
       <c r="D15" s="15" t="s">
         <v>11</v>
@@ -709,7 +826,9 @@
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15" t="s">
         <v>12</v>
@@ -719,7 +838,9 @@
       <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="C17" s="14"/>
       <c r="D17" s="17" t="s">
         <v>19</v>
@@ -729,7 +850,9 @@
       <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="C18" s="14"/>
       <c r="D18" s="17" t="s">
         <v>19</v>
@@ -739,7 +862,9 @@
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="C19" s="14"/>
       <c r="D19" s="17" t="s">
         <v>19</v>
@@ -749,7 +874,9 @@
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="C20" s="14"/>
       <c r="D20" s="17" t="s">
         <v>19</v>
@@ -759,7 +886,9 @@
       <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="C21" s="14"/>
       <c r="D21" s="17" t="s">
         <v>19</v>
@@ -769,7 +898,9 @@
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="13"/>
+      <c r="B22" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="C22" s="14"/>
       <c r="D22" s="17" t="s">
         <v>19</v>
@@ -779,7 +910,9 @@
       <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="C23" s="14"/>
       <c r="D23" s="15" t="s">
         <v>13</v>
@@ -789,7 +922,9 @@
       <c r="A24" s="12">
         <v>21</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="C24" s="14"/>
       <c r="D24" s="15" t="s">
         <v>14</v>
@@ -799,7 +934,9 @@
       <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="14"/>
+      <c r="B25" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="C25" s="14"/>
       <c r="D25" s="15" t="s">
         <v>9</v>
@@ -809,7 +946,9 @@
       <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="14"/>
+      <c r="B26" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="C26" s="14"/>
       <c r="D26" s="15" t="s">
         <v>11</v>
@@ -819,7 +958,9 @@
       <c r="A27" s="12">
         <v>24</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="C27" s="14"/>
       <c r="D27" s="15" t="s">
         <v>9</v>
@@ -829,7 +970,9 @@
       <c r="A28" s="12">
         <v>25</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>9</v>
@@ -839,7 +982,9 @@
       <c r="A29" s="12">
         <v>26</v>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="22" t="s">
+        <v>44</v>
+      </c>
       <c r="C29" s="14"/>
       <c r="D29" s="15" t="s">
         <v>9</v>
@@ -849,7 +994,9 @@
       <c r="A30" s="12">
         <v>27</v>
       </c>
-      <c r="B30" s="23"/>
+      <c r="B30" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="C30" s="14"/>
       <c r="D30" s="15" t="s">
         <v>15</v>
@@ -859,7 +1006,9 @@
       <c r="A31" s="12">
         <v>28</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="22" t="s">
+        <v>46</v>
+      </c>
       <c r="C31" s="14"/>
       <c r="D31" s="15" t="s">
         <v>16</v>
@@ -869,7 +1018,9 @@
       <c r="A32" s="12">
         <v>29</v>
       </c>
-      <c r="B32" s="23"/>
+      <c r="B32" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="C32" s="14"/>
       <c r="D32" s="15" t="s">
         <v>11</v>
@@ -879,7 +1030,9 @@
       <c r="A33" s="12">
         <v>30</v>
       </c>
-      <c r="B33" s="14"/>
+      <c r="B33" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="C33" s="14"/>
       <c r="D33" s="15" t="s">
         <v>11</v>
@@ -889,7 +1042,9 @@
       <c r="A34" s="12">
         <v>31</v>
       </c>
-      <c r="B34" s="23"/>
+      <c r="B34" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="C34" s="14"/>
       <c r="D34" s="15" t="s">
         <v>8</v>
@@ -899,7 +1054,9 @@
       <c r="A35" s="12">
         <v>32</v>
       </c>
-      <c r="B35" s="23"/>
+      <c r="B35" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="C35" s="14"/>
       <c r="D35" s="15" t="s">
         <v>16</v>
@@ -909,7 +1066,9 @@
       <c r="A36" s="12">
         <v>33</v>
       </c>
-      <c r="B36" s="23"/>
+      <c r="B36" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="C36" s="14"/>
       <c r="D36" s="15" t="s">
         <v>16</v>
@@ -919,7 +1078,9 @@
       <c r="A37" s="12">
         <v>34</v>
       </c>
-      <c r="B37" s="23"/>
+      <c r="B37" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="C37" s="14"/>
       <c r="D37" s="15" t="s">
         <v>11</v>
@@ -929,7 +1090,9 @@
       <c r="A38" s="12">
         <v>35</v>
       </c>
-      <c r="B38" s="23"/>
+      <c r="B38" s="22" t="s">
+        <v>53</v>
+      </c>
       <c r="C38" s="14"/>
       <c r="D38" s="15" t="s">
         <v>12</v>
@@ -939,7 +1102,9 @@
       <c r="A39" s="12">
         <v>36</v>
       </c>
-      <c r="B39" s="23"/>
+      <c r="B39" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="C39" s="14"/>
       <c r="D39" s="15" t="s">
         <v>17</v>
@@ -949,7 +1114,9 @@
       <c r="A40" s="12">
         <v>37</v>
       </c>
-      <c r="B40" s="23"/>
+      <c r="B40" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="C40" s="14"/>
       <c r="D40" s="15" t="s">
         <v>17</v>
@@ -959,7 +1126,7 @@
       <c r="A41" s="12">
         <v>38</v>
       </c>
-      <c r="B41" s="23"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="14"/>
       <c r="D41" s="15" t="s">
         <v>17</v>
@@ -969,7 +1136,7 @@
       <c r="A42" s="12">
         <v>39</v>
       </c>
-      <c r="B42" s="23"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="14"/>
       <c r="D42" s="15" t="s">
         <v>10</v>
@@ -979,7 +1146,7 @@
       <c r="A43" s="12">
         <v>40</v>
       </c>
-      <c r="B43" s="23"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="14"/>
       <c r="D43" s="15" t="s">
         <v>10</v>
@@ -989,7 +1156,7 @@
       <c r="A44" s="12">
         <v>41</v>
       </c>
-      <c r="B44" s="23"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="14"/>
       <c r="D44" s="15" t="s">
         <v>10</v>
@@ -1046,11 +1213,11 @@
       </c>
     </row>
     <row r="50" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19">
+      <c r="A50" s="18">
         <v>47</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="15" t="s">
         <v>11</v>
       </c>

--- a/2014/Sponsoring/VIP/VIP-Liste 2014.xlsx
+++ b/2014/Sponsoring/VIP/VIP-Liste 2014.xlsx
@@ -633,7 +633,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2014/Sponsoring/VIP/VIP-Liste 2014.xlsx
+++ b/2014/Sponsoring/VIP/VIP-Liste 2014.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -184,6 +184,24 @@
   </si>
   <si>
     <t>Ogolder Marianne</t>
+  </si>
+  <si>
+    <t>Das Stein Projekt</t>
+  </si>
+  <si>
+    <t>Ortner</t>
+  </si>
+  <si>
+    <t>Fuchs Bettina Nagelstudio</t>
+  </si>
+  <si>
+    <t>Contitec</t>
+  </si>
+  <si>
+    <t>Mercedes Praha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -316,12 +334,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -329,6 +341,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -630,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,511 +682,523 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:6" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>12</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>13</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>14</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>15</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="17" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>16</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="17" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>17</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="17" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="17" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>21</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>24</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>25</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>26</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>27</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15" t="s">
+      <c r="C30" s="13"/>
+      <c r="D30" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>28</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>29</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>30</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>31</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15" t="s">
+      <c r="C34" s="13"/>
+      <c r="D34" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>32</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15" t="s">
+      <c r="C35" s="13"/>
+      <c r="D35" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>33</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15" t="s">
+      <c r="C36" s="13"/>
+      <c r="D36" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>34</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15" t="s">
+      <c r="C37" s="13"/>
+      <c r="D37" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>35</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>36</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15" t="s">
+      <c r="C39" s="13"/>
+      <c r="D39" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>37</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>38</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15" t="s">
+      <c r="B41" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>39</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15" t="s">
+      <c r="B42" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>40</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15" t="s">
+      <c r="B43" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>41</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15" t="s">
+      <c r="B44" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>42</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15" t="s">
+      <c r="B45" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1213,11 +1243,11 @@
       </c>
     </row>
     <row r="50" spans="1:4" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18">
+      <c r="A50" s="16">
         <v>47</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="15" t="s">
         <v>11</v>
       </c>

--- a/2014/Sponsoring/VIP/VIP-Liste 2014.xlsx
+++ b/2014/Sponsoring/VIP/VIP-Liste 2014.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Swietelsky</t>
   </si>
 </sst>
 </file>
@@ -311,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,7 +343,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -651,7 +653,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +695,7 @@
       <c r="D4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -708,7 +710,7 @@
       <c r="D5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -723,7 +725,7 @@
       <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -738,7 +740,7 @@
       <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>7</v>
       </c>
     </row>
@@ -753,7 +755,7 @@
       <c r="D8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:6" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
@@ -859,7 +861,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>19</v>
       </c>
     </row>
@@ -871,7 +873,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>19</v>
       </c>
     </row>
@@ -883,7 +885,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>19</v>
       </c>
     </row>
@@ -895,7 +897,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>19</v>
       </c>
     </row>
@@ -903,11 +905,11 @@
       <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>19</v>
       </c>
     </row>
@@ -915,11 +917,11 @@
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>19</v>
       </c>
     </row>
@@ -927,7 +929,7 @@
       <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="13"/>
@@ -963,7 +965,7 @@
       <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="13"/>
@@ -975,7 +977,7 @@
       <c r="A27" s="12">
         <v>24</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
@@ -987,7 +989,7 @@
       <c r="A28" s="12">
         <v>25</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="13"/>
@@ -999,7 +1001,7 @@
       <c r="A29" s="12">
         <v>26</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="13"/>
@@ -1011,7 +1013,7 @@
       <c r="A30" s="12">
         <v>27</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="13"/>
@@ -1023,7 +1025,7 @@
       <c r="A31" s="12">
         <v>28</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="13"/>
@@ -1035,7 +1037,7 @@
       <c r="A32" s="12">
         <v>29</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="13"/>
@@ -1050,7 +1052,7 @@
       <c r="A33" s="12">
         <v>30</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C33" s="13"/>
@@ -1062,7 +1064,7 @@
       <c r="A34" s="12">
         <v>31</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="13"/>
@@ -1074,7 +1076,7 @@
       <c r="A35" s="12">
         <v>32</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="13" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="13"/>
@@ -1086,7 +1088,7 @@
       <c r="A36" s="12">
         <v>33</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C36" s="13"/>
@@ -1098,7 +1100,7 @@
       <c r="A37" s="12">
         <v>34</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="13"/>
@@ -1110,7 +1112,7 @@
       <c r="A38" s="12">
         <v>35</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C38" s="13"/>
@@ -1122,7 +1124,7 @@
       <c r="A39" s="12">
         <v>36</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C39" s="13"/>
@@ -1134,7 +1136,7 @@
       <c r="A40" s="12">
         <v>37</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C40" s="13"/>
@@ -1146,7 +1148,7 @@
       <c r="A41" s="12">
         <v>38</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C41" s="13"/>
@@ -1158,7 +1160,7 @@
       <c r="A42" s="12">
         <v>39</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C42" s="13"/>
@@ -1170,7 +1172,7 @@
       <c r="A43" s="12">
         <v>40</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="13" t="s">
         <v>58</v>
       </c>
       <c r="C43" s="13"/>
@@ -1182,7 +1184,7 @@
       <c r="A44" s="12">
         <v>41</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="13" t="s">
         <v>59</v>
       </c>
       <c r="C44" s="13"/>
@@ -1206,7 +1208,9 @@
       <c r="A46" s="12">
         <v>43</v>
       </c>
-      <c r="B46" s="13"/>
+      <c r="B46" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="C46" s="14"/>
       <c r="D46" s="15" t="s">
         <v>10</v>
@@ -1216,7 +1220,7 @@
       <c r="A47" s="12">
         <v>44</v>
       </c>
-      <c r="B47" s="6"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="14"/>
       <c r="D47" s="15" t="s">
         <v>10</v>

--- a/2014/Sponsoring/VIP/VIP-Liste 2014.xlsx
+++ b/2014/Sponsoring/VIP/VIP-Liste 2014.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Swietelsky</t>
+  </si>
+  <si>
+    <t>JVP Ried (Bühne)</t>
   </si>
 </sst>
 </file>
@@ -652,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1223,9 @@
       <c r="A47" s="12">
         <v>44</v>
       </c>
-      <c r="B47" s="19"/>
+      <c r="B47" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="C47" s="14"/>
       <c r="D47" s="15" t="s">
         <v>10</v>
